--- a/Backlog.xlsx
+++ b/Backlog.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20389"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\Witold Kubisiak\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Tomek\Virtual Studio\Projects\Knigth's Memorial\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02C3C73D-F0D6-432D-83D7-B05126E5CCD1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60D9EA00-2EB4-43F8-B7B4-B7498D2B63A2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="11385" xr2:uid="{49F0EBDF-A5B3-4490-AA8C-8E415F793754}"/>
+    <workbookView xWindow="3930" yWindow="345" windowWidth="23040" windowHeight="12630" xr2:uid="{49F0EBDF-A5B3-4490-AA8C-8E415F793754}"/>
   </bookViews>
   <sheets>
     <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="39">
   <si>
     <t>Mapa</t>
   </si>
@@ -139,6 +139,9 @@
   </si>
   <si>
     <t>W trakcie</t>
+  </si>
+  <si>
+    <t>Kolizja</t>
   </si>
 </sst>
 </file>
@@ -204,7 +207,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -360,6 +363,17 @@
         <color indexed="64"/>
       </top>
       <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -372,7 +386,7 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -380,13 +394,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="9" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="5"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="9" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="4" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="10" xfId="4" applyBorder="1" applyAlignment="1">
@@ -424,24 +435,12 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="9" xfId="4" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="5"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -460,6 +459,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="13" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="5"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="6" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="5"/>
+    </xf>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Akcent 2" xfId="1" builtinId="33"/>
@@ -468,7 +483,7 @@
     <cellStyle name="Akcent 6" xfId="4" builtinId="49"/>
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="35">
+  <dxfs count="9">
     <dxf>
       <fill>
         <patternFill>
@@ -514,27 +529,6 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
           <bgColor rgb="FFFFC000"/>
         </patternFill>
       </fill>
@@ -550,167 +544,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1030,10 +863,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2104DC3-A092-450F-9842-2ED575DC7EF4}">
-  <dimension ref="C2:I42"/>
+  <dimension ref="C2:I43"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1046,334 +879,340 @@
   <sheetData>
     <row r="2" spans="3:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="3:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C3" s="18"/>
-      <c r="D3" s="22" t="s">
+      <c r="C3" s="33"/>
+      <c r="D3" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="30" t="s">
+      <c r="E3" s="25" t="s">
         <v>35</v>
       </c>
-      <c r="F3" s="23" t="s">
+      <c r="F3" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="I3" s="29" t="s">
+      <c r="I3" s="24" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="4" spans="3:9" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="C4" s="24" t="s">
+      <c r="C4" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="21" t="s">
+      <c r="D4" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="E4" s="26">
+      <c r="E4" s="21">
         <v>1</v>
       </c>
-      <c r="F4" s="28" t="s">
+      <c r="F4" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="I4" s="34" t="s">
+      <c r="I4" s="29" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="5" spans="3:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C5" s="20"/>
-      <c r="D5" s="3" t="s">
+    <row r="5" spans="3:9" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="C5" s="31"/>
+      <c r="D5" s="35" t="s">
+        <v>38</v>
+      </c>
+      <c r="E5" s="26">
+        <v>1</v>
+      </c>
+      <c r="F5" s="27" t="s">
+        <v>37</v>
+      </c>
+      <c r="I5" s="29" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="6" spans="3:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C6" s="32"/>
+      <c r="D6" s="34" t="s">
         <v>12</v>
       </c>
-      <c r="E5" s="31">
+      <c r="E6" s="26">
         <v>1</v>
       </c>
-      <c r="F5" s="32" t="s">
+      <c r="F6" s="27" t="s">
         <v>37</v>
       </c>
-      <c r="I5" s="34" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="6" spans="3:9" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="C6" s="24" t="s">
+    </row>
+    <row r="7" spans="3:9" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="C7" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="D7" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="E6" s="31">
+      <c r="E7" s="26">
         <v>2</v>
       </c>
-      <c r="F6" s="32" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="7" spans="3:9" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="C7" s="19"/>
-      <c r="D7" s="5" t="s">
+      <c r="F7" s="27" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="8" spans="3:9" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="C8" s="31"/>
+      <c r="D8" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="E7" s="31">
+      <c r="E8" s="26">
         <v>1</v>
       </c>
-      <c r="F7" s="32" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="8" spans="3:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C8" s="20"/>
-      <c r="D8" s="6" t="s">
+      <c r="F8" s="27" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="9" spans="3:9" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C9" s="32"/>
+      <c r="D9" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="E8" s="31">
+      <c r="E9" s="26">
         <v>2</v>
       </c>
-      <c r="F8" s="32" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="9" spans="3:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C9" s="24" t="s">
+      <c r="F9" s="27" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="10" spans="3:9" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="C10" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="D9" s="7" t="s">
+      <c r="D10" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="E9" s="31">
+      <c r="E10" s="26">
         <v>2</v>
       </c>
-      <c r="F9" s="32" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="10" spans="3:9" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="C10" s="19"/>
-      <c r="D10" s="8" t="s">
+      <c r="F10" s="27" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="11" spans="3:9" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="C11" s="31"/>
+      <c r="D11" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="E10" s="31">
+      <c r="E11" s="26">
         <v>3</v>
       </c>
-      <c r="F10" s="32" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="11" spans="3:9" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="C11" s="19"/>
-      <c r="D11" s="8" t="s">
+      <c r="F11" s="27" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="12" spans="3:9" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="C12" s="31"/>
+      <c r="D12" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="E11" s="31">
+      <c r="E12" s="26">
         <v>2</v>
       </c>
-      <c r="F11" s="32" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="12" spans="3:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C12" s="20"/>
-      <c r="D12" s="9" t="s">
+      <c r="F12" s="27" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="13" spans="3:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C13" s="32"/>
+      <c r="D13" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="E12" s="31">
+      <c r="E13" s="26">
         <v>2</v>
       </c>
-      <c r="F12" s="32" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="13" spans="3:9" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="C13" s="24" t="s">
+      <c r="F13" s="27" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="14" spans="3:9" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="C14" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="D13" s="10" t="s">
+      <c r="D14" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="E13" s="31">
+      <c r="E14" s="26">
         <v>2</v>
       </c>
-      <c r="F13" s="32" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="14" spans="3:9" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="C14" s="19"/>
-      <c r="D14" s="11" t="s">
+      <c r="F14" s="27" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="15" spans="3:9" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="C15" s="31"/>
+      <c r="D15" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="E14" s="31">
+      <c r="E15" s="26">
         <v>1</v>
       </c>
-      <c r="F14" s="32" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="15" spans="3:9" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="C15" s="19"/>
-      <c r="D15" s="12" t="s">
+      <c r="F15" s="27" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="16" spans="3:9" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="C16" s="31"/>
+      <c r="D16" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="E15" s="31">
+      <c r="E16" s="26">
         <v>3</v>
       </c>
-      <c r="F15" s="32" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="16" spans="3:9" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="C16" s="19"/>
-      <c r="D16" s="11" t="s">
+      <c r="F16" s="27" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="17" spans="3:6" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="C17" s="31"/>
+      <c r="D17" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="E16" s="31">
+      <c r="E17" s="26">
         <v>2</v>
       </c>
-      <c r="F16" s="32" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="17" spans="3:6" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="C17" s="19"/>
-      <c r="D17" s="12" t="s">
+      <c r="F17" s="27" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="18" spans="3:6" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="C18" s="31"/>
+      <c r="D18" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="E17" s="31">
+      <c r="E18" s="26">
         <v>3</v>
       </c>
-      <c r="F17" s="32" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="18" spans="3:6" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C18" s="20"/>
-      <c r="D18" s="11" t="s">
+      <c r="F18" s="27" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="19" spans="3:6" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C19" s="32"/>
+      <c r="D19" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="E18" s="31">
+      <c r="E19" s="26">
         <v>4</v>
       </c>
-      <c r="F18" s="32" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="19" spans="3:6" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="C19" s="24" t="s">
+      <c r="F19" s="27" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="20" spans="3:6" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="C20" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="D19" s="12" t="s">
+      <c r="D20" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="E19" s="31">
+      <c r="E20" s="26">
         <v>2</v>
       </c>
-      <c r="F19" s="32" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="20" spans="3:6" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C20" s="20"/>
-      <c r="D20" s="11" t="s">
+      <c r="F20" s="27" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="21" spans="3:6" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C21" s="32"/>
+      <c r="D21" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="E20" s="31">
+      <c r="E21" s="26">
         <v>3</v>
       </c>
-      <c r="F20" s="32" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="21" spans="3:6" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C21" s="25" t="s">
+      <c r="F21" s="27" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="22" spans="3:6" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C22" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="D21" s="13" t="s">
+      <c r="D22" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="E21" s="31">
+      <c r="E22" s="26">
         <v>4</v>
       </c>
-      <c r="F21" s="32" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="22" spans="3:6" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="C22" s="24" t="s">
+      <c r="F22" s="27" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="23" spans="3:6" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="C23" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="D22" s="14" t="s">
+      <c r="D23" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="E22" s="31"/>
-      <c r="F22" s="32" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="23" spans="3:6" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="C23" s="19"/>
-      <c r="D23" s="15" t="s">
+      <c r="E23" s="26"/>
+      <c r="F23" s="27" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="24" spans="3:6" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="C24" s="31"/>
+      <c r="D24" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="E23" s="31"/>
-      <c r="F23" s="32" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="24" spans="3:6" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="C24" s="19"/>
-      <c r="D24" s="16" t="s">
+      <c r="E24" s="26"/>
+      <c r="F24" s="27" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="25" spans="3:6" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="C25" s="31"/>
+      <c r="D25" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="E24" s="31"/>
-      <c r="F24" s="32" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="25" spans="3:6" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="C25" s="19"/>
-      <c r="D25" s="15" t="s">
+      <c r="E25" s="26"/>
+      <c r="F25" s="27" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="26" spans="3:6" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="C26" s="31"/>
+      <c r="D26" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="E25" s="31"/>
-      <c r="F25" s="32" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="26" spans="3:6" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="C26" s="19"/>
-      <c r="D26" s="16" t="s">
+      <c r="E26" s="26"/>
+      <c r="F26" s="27" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="27" spans="3:6" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="C27" s="31"/>
+      <c r="D27" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="E26" s="31"/>
-      <c r="F26" s="32" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="27" spans="3:6" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="C27" s="19"/>
-      <c r="D27" s="15" t="s">
+      <c r="E27" s="26"/>
+      <c r="F27" s="27" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="28" spans="3:6" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C28" s="31"/>
+      <c r="D28" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="E27" s="31"/>
-      <c r="F27" s="32" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="28" spans="3:6" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C28" s="20"/>
-      <c r="D28" s="17" t="s">
+      <c r="E28" s="26"/>
+      <c r="F28" s="28" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="29" spans="3:6" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C29" s="32"/>
+      <c r="D29" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="E28" s="27"/>
-      <c r="F28" s="33" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="29" spans="3:6" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="C29" s="1"/>
+      <c r="E29" s="22"/>
     </row>
     <row r="30" spans="3:6" ht="18.75" x14ac:dyDescent="0.25">
       <c r="C30" s="1"/>
     </row>
     <row r="31" spans="3:6" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="C31" s="2"/>
+      <c r="C31" s="1"/>
     </row>
     <row r="32" spans="3:6" ht="18.75" x14ac:dyDescent="0.25">
       <c r="C32" s="2"/>
@@ -1397,7 +1236,7 @@
       <c r="C38" s="2"/>
     </row>
     <row r="39" spans="3:3" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="C39" s="1"/>
+      <c r="C39" s="2"/>
     </row>
     <row r="40" spans="3:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="C40" s="1"/>
@@ -1408,56 +1247,59 @@
     <row r="42" spans="3:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="C42" s="1"/>
     </row>
+    <row r="43" spans="3:3" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="C43" s="1"/>
+    </row>
   </sheetData>
   <mergeCells count="6">
-    <mergeCell ref="C22:C28"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="C6:C8"/>
-    <mergeCell ref="C9:C12"/>
-    <mergeCell ref="C13:C18"/>
-    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="C4:C6"/>
+    <mergeCell ref="C23:C29"/>
+    <mergeCell ref="C7:C9"/>
+    <mergeCell ref="C10:C13"/>
+    <mergeCell ref="C14:C19"/>
+    <mergeCell ref="C20:C21"/>
   </mergeCells>
   <conditionalFormatting sqref="F4:F28">
-    <cfRule type="containsText" dxfId="17" priority="10" operator="containsText" text="w trakcie">
+    <cfRule type="cellIs" dxfId="8" priority="8" operator="equal">
+      <formula>"Zrobione"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="9" operator="equal">
+      <formula>"Do rozpoczęcia"</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="6" priority="10" operator="containsText" text="w trakcie">
       <formula>NOT(ISERROR(SEARCH("w trakcie",F4)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="16" priority="9" operator="equal">
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I4">
+    <cfRule type="cellIs" dxfId="5" priority="4" operator="equal">
+      <formula>"Zrobione"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="5" operator="equal">
       <formula>"Do rozpoczęcia"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="15" priority="8" operator="equal">
+    <cfRule type="containsText" dxfId="3" priority="6" operator="containsText" text="w trakcie">
+      <formula>NOT(ISERROR(SEARCH("w trakcie",I4)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I5">
+    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
       <formula>"Zrobione"</formula>
     </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
+      <formula>"Do rozpoczęcia"</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="0" priority="3" operator="containsText" text="w trakcie">
+      <formula>NOT(ISERROR(SEARCH("w trakcie",I5)))</formula>
+    </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E4:E28">
-    <cfRule type="colorScale" priority="7">
+  <conditionalFormatting sqref="E4:E29">
+    <cfRule type="colorScale" priority="11">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
         <color rgb="FFFFE43F"/>
         <color rgb="FF00B050"/>
       </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I4">
-    <cfRule type="cellIs" dxfId="14" priority="4" operator="equal">
-      <formula>"Zrobione"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="13" priority="5" operator="equal">
-      <formula>"Do rozpoczęcia"</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="12" priority="6" operator="containsText" text="w trakcie">
-      <formula>NOT(ISERROR(SEARCH("w trakcie",I4)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I5">
-    <cfRule type="cellIs" dxfId="11" priority="1" operator="equal">
-      <formula>"Zrobione"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="2" operator="equal">
-      <formula>"Do rozpoczęcia"</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="9" priority="3" operator="containsText" text="w trakcie">
-      <formula>NOT(ISERROR(SEARCH("w trakcie",I5)))</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
@@ -1469,6 +1311,6 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Backlog.xlsx
+++ b/Backlog.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20389"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Tomek\Virtual Studio\Projects\Knigth's Memorial\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\Knight Memorial\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60D9EA00-2EB4-43F8-B7B4-B7498D2B63A2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C9DF21A-4535-4FFC-A2E1-8CFDFE422D7E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3930" yWindow="345" windowWidth="23040" windowHeight="12630" xr2:uid="{49F0EBDF-A5B3-4490-AA8C-8E415F793754}"/>
   </bookViews>
@@ -459,21 +459,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="13" xfId="4" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="5"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="6" xfId="4" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="5"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -866,7 +866,7 @@
   <dimension ref="C2:I43"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -879,7 +879,7 @@
   <sheetData>
     <row r="2" spans="3:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="3:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C3" s="33"/>
+      <c r="C3" s="30"/>
       <c r="D3" s="18" t="s">
         <v>10</v>
       </c>
@@ -894,7 +894,7 @@
       </c>
     </row>
     <row r="4" spans="3:9" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="C4" s="30" t="s">
+      <c r="C4" s="33" t="s">
         <v>0</v>
       </c>
       <c r="D4" s="17" t="s">
@@ -911,23 +911,23 @@
       </c>
     </row>
     <row r="5" spans="3:9" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="C5" s="31"/>
-      <c r="D5" s="35" t="s">
+      <c r="C5" s="34"/>
+      <c r="D5" s="32" t="s">
         <v>38</v>
       </c>
       <c r="E5" s="26">
         <v>1</v>
       </c>
       <c r="F5" s="27" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I5" s="29" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="6" spans="3:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C6" s="32"/>
-      <c r="D6" s="34" t="s">
+      <c r="C6" s="35"/>
+      <c r="D6" s="31" t="s">
         <v>12</v>
       </c>
       <c r="E6" s="26">
@@ -938,7 +938,7 @@
       </c>
     </row>
     <row r="7" spans="3:9" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="C7" s="30" t="s">
+      <c r="C7" s="33" t="s">
         <v>1</v>
       </c>
       <c r="D7" s="3" t="s">
@@ -952,7 +952,7 @@
       </c>
     </row>
     <row r="8" spans="3:9" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="C8" s="31"/>
+      <c r="C8" s="34"/>
       <c r="D8" s="4" t="s">
         <v>15</v>
       </c>
@@ -960,11 +960,11 @@
         <v>1</v>
       </c>
       <c r="F8" s="27" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
     </row>
     <row r="9" spans="3:9" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C9" s="32"/>
+      <c r="C9" s="35"/>
       <c r="D9" s="5" t="s">
         <v>16</v>
       </c>
@@ -976,7 +976,7 @@
       </c>
     </row>
     <row r="10" spans="3:9" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="C10" s="30" t="s">
+      <c r="C10" s="33" t="s">
         <v>2</v>
       </c>
       <c r="D10" s="6" t="s">
@@ -990,7 +990,7 @@
       </c>
     </row>
     <row r="11" spans="3:9" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="C11" s="31"/>
+      <c r="C11" s="34"/>
       <c r="D11" s="7" t="s">
         <v>18</v>
       </c>
@@ -1002,7 +1002,7 @@
       </c>
     </row>
     <row r="12" spans="3:9" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="C12" s="31"/>
+      <c r="C12" s="34"/>
       <c r="D12" s="7" t="s">
         <v>19</v>
       </c>
@@ -1014,7 +1014,7 @@
       </c>
     </row>
     <row r="13" spans="3:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C13" s="32"/>
+      <c r="C13" s="35"/>
       <c r="D13" s="8" t="s">
         <v>20</v>
       </c>
@@ -1026,7 +1026,7 @@
       </c>
     </row>
     <row r="14" spans="3:9" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="C14" s="30" t="s">
+      <c r="C14" s="33" t="s">
         <v>3</v>
       </c>
       <c r="D14" s="9" t="s">
@@ -1040,7 +1040,7 @@
       </c>
     </row>
     <row r="15" spans="3:9" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="C15" s="31"/>
+      <c r="C15" s="34"/>
       <c r="D15" s="10" t="s">
         <v>22</v>
       </c>
@@ -1048,11 +1048,11 @@
         <v>1</v>
       </c>
       <c r="F15" s="27" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
     </row>
     <row r="16" spans="3:9" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="C16" s="31"/>
+      <c r="C16" s="34"/>
       <c r="D16" s="11" t="s">
         <v>23</v>
       </c>
@@ -1064,7 +1064,7 @@
       </c>
     </row>
     <row r="17" spans="3:6" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="C17" s="31"/>
+      <c r="C17" s="34"/>
       <c r="D17" s="10" t="s">
         <v>24</v>
       </c>
@@ -1076,7 +1076,7 @@
       </c>
     </row>
     <row r="18" spans="3:6" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="C18" s="31"/>
+      <c r="C18" s="34"/>
       <c r="D18" s="11" t="s">
         <v>25</v>
       </c>
@@ -1088,7 +1088,7 @@
       </c>
     </row>
     <row r="19" spans="3:6" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C19" s="32"/>
+      <c r="C19" s="35"/>
       <c r="D19" s="10" t="s">
         <v>26</v>
       </c>
@@ -1100,7 +1100,7 @@
       </c>
     </row>
     <row r="20" spans="3:6" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="C20" s="30" t="s">
+      <c r="C20" s="33" t="s">
         <v>4</v>
       </c>
       <c r="D20" s="11" t="s">
@@ -1114,7 +1114,7 @@
       </c>
     </row>
     <row r="21" spans="3:6" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C21" s="32"/>
+      <c r="C21" s="35"/>
       <c r="D21" s="10" t="s">
         <v>5</v>
       </c>
@@ -1140,7 +1140,7 @@
       </c>
     </row>
     <row r="23" spans="3:6" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="C23" s="30" t="s">
+      <c r="C23" s="33" t="s">
         <v>6</v>
       </c>
       <c r="D23" s="13" t="s">
@@ -1152,7 +1152,7 @@
       </c>
     </row>
     <row r="24" spans="3:6" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="C24" s="31"/>
+      <c r="C24" s="34"/>
       <c r="D24" s="14" t="s">
         <v>29</v>
       </c>
@@ -1162,7 +1162,7 @@
       </c>
     </row>
     <row r="25" spans="3:6" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="C25" s="31"/>
+      <c r="C25" s="34"/>
       <c r="D25" s="15" t="s">
         <v>30</v>
       </c>
@@ -1172,7 +1172,7 @@
       </c>
     </row>
     <row r="26" spans="3:6" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="C26" s="31"/>
+      <c r="C26" s="34"/>
       <c r="D26" s="14" t="s">
         <v>31</v>
       </c>
@@ -1182,7 +1182,7 @@
       </c>
     </row>
     <row r="27" spans="3:6" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="C27" s="31"/>
+      <c r="C27" s="34"/>
       <c r="D27" s="15" t="s">
         <v>7</v>
       </c>
@@ -1192,7 +1192,7 @@
       </c>
     </row>
     <row r="28" spans="3:6" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C28" s="31"/>
+      <c r="C28" s="34"/>
       <c r="D28" s="14" t="s">
         <v>8</v>
       </c>
@@ -1202,7 +1202,7 @@
       </c>
     </row>
     <row r="29" spans="3:6" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C29" s="32"/>
+      <c r="C29" s="35"/>
       <c r="D29" s="16" t="s">
         <v>9</v>
       </c>

--- a/Backlog.xlsx
+++ b/Backlog.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\Knight Memorial\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Nowy folder\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C9DF21A-4535-4FFC-A2E1-8CFDFE422D7E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7131FAC9-5B3F-4373-BA7A-1B65D58EE261}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3930" yWindow="345" windowWidth="23040" windowHeight="12630" xr2:uid="{49F0EBDF-A5B3-4490-AA8C-8E415F793754}"/>
   </bookViews>
@@ -866,7 +866,7 @@
   <dimension ref="C2:I43"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -904,7 +904,7 @@
         <v>1</v>
       </c>
       <c r="F4" s="23" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I4" s="29" t="s">
         <v>37</v>
@@ -1048,7 +1048,7 @@
         <v>1</v>
       </c>
       <c r="F15" s="27" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="16" spans="3:9" ht="18.75" x14ac:dyDescent="0.25">
@@ -1084,7 +1084,7 @@
         <v>3</v>
       </c>
       <c r="F18" s="27" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
     </row>
     <row r="19" spans="3:6" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">

--- a/Backlog.xlsx
+++ b/Backlog.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20389"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Tomek\Virtual Studio\Projects\Knigth's Memorial\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Nowy folder\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60D9EA00-2EB4-43F8-B7B4-B7498D2B63A2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7131FAC9-5B3F-4373-BA7A-1B65D58EE261}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3930" yWindow="345" windowWidth="23040" windowHeight="12630" xr2:uid="{49F0EBDF-A5B3-4490-AA8C-8E415F793754}"/>
   </bookViews>
@@ -459,21 +459,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="13" xfId="4" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="5"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="6" xfId="4" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="5"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -866,7 +866,7 @@
   <dimension ref="C2:I43"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -879,7 +879,7 @@
   <sheetData>
     <row r="2" spans="3:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="3:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C3" s="33"/>
+      <c r="C3" s="30"/>
       <c r="D3" s="18" t="s">
         <v>10</v>
       </c>
@@ -894,7 +894,7 @@
       </c>
     </row>
     <row r="4" spans="3:9" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="C4" s="30" t="s">
+      <c r="C4" s="33" t="s">
         <v>0</v>
       </c>
       <c r="D4" s="17" t="s">
@@ -904,30 +904,30 @@
         <v>1</v>
       </c>
       <c r="F4" s="23" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I4" s="29" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="5" spans="3:9" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="C5" s="31"/>
-      <c r="D5" s="35" t="s">
+      <c r="C5" s="34"/>
+      <c r="D5" s="32" t="s">
         <v>38</v>
       </c>
       <c r="E5" s="26">
         <v>1</v>
       </c>
       <c r="F5" s="27" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I5" s="29" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="6" spans="3:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C6" s="32"/>
-      <c r="D6" s="34" t="s">
+      <c r="C6" s="35"/>
+      <c r="D6" s="31" t="s">
         <v>12</v>
       </c>
       <c r="E6" s="26">
@@ -938,7 +938,7 @@
       </c>
     </row>
     <row r="7" spans="3:9" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="C7" s="30" t="s">
+      <c r="C7" s="33" t="s">
         <v>1</v>
       </c>
       <c r="D7" s="3" t="s">
@@ -952,7 +952,7 @@
       </c>
     </row>
     <row r="8" spans="3:9" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="C8" s="31"/>
+      <c r="C8" s="34"/>
       <c r="D8" s="4" t="s">
         <v>15</v>
       </c>
@@ -960,11 +960,11 @@
         <v>1</v>
       </c>
       <c r="F8" s="27" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
     </row>
     <row r="9" spans="3:9" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C9" s="32"/>
+      <c r="C9" s="35"/>
       <c r="D9" s="5" t="s">
         <v>16</v>
       </c>
@@ -976,7 +976,7 @@
       </c>
     </row>
     <row r="10" spans="3:9" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="C10" s="30" t="s">
+      <c r="C10" s="33" t="s">
         <v>2</v>
       </c>
       <c r="D10" s="6" t="s">
@@ -990,7 +990,7 @@
       </c>
     </row>
     <row r="11" spans="3:9" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="C11" s="31"/>
+      <c r="C11" s="34"/>
       <c r="D11" s="7" t="s">
         <v>18</v>
       </c>
@@ -1002,7 +1002,7 @@
       </c>
     </row>
     <row r="12" spans="3:9" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="C12" s="31"/>
+      <c r="C12" s="34"/>
       <c r="D12" s="7" t="s">
         <v>19</v>
       </c>
@@ -1014,7 +1014,7 @@
       </c>
     </row>
     <row r="13" spans="3:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C13" s="32"/>
+      <c r="C13" s="35"/>
       <c r="D13" s="8" t="s">
         <v>20</v>
       </c>
@@ -1026,7 +1026,7 @@
       </c>
     </row>
     <row r="14" spans="3:9" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="C14" s="30" t="s">
+      <c r="C14" s="33" t="s">
         <v>3</v>
       </c>
       <c r="D14" s="9" t="s">
@@ -1040,7 +1040,7 @@
       </c>
     </row>
     <row r="15" spans="3:9" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="C15" s="31"/>
+      <c r="C15" s="34"/>
       <c r="D15" s="10" t="s">
         <v>22</v>
       </c>
@@ -1048,11 +1048,11 @@
         <v>1</v>
       </c>
       <c r="F15" s="27" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="16" spans="3:9" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="C16" s="31"/>
+      <c r="C16" s="34"/>
       <c r="D16" s="11" t="s">
         <v>23</v>
       </c>
@@ -1064,7 +1064,7 @@
       </c>
     </row>
     <row r="17" spans="3:6" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="C17" s="31"/>
+      <c r="C17" s="34"/>
       <c r="D17" s="10" t="s">
         <v>24</v>
       </c>
@@ -1076,7 +1076,7 @@
       </c>
     </row>
     <row r="18" spans="3:6" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="C18" s="31"/>
+      <c r="C18" s="34"/>
       <c r="D18" s="11" t="s">
         <v>25</v>
       </c>
@@ -1084,11 +1084,11 @@
         <v>3</v>
       </c>
       <c r="F18" s="27" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
     </row>
     <row r="19" spans="3:6" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C19" s="32"/>
+      <c r="C19" s="35"/>
       <c r="D19" s="10" t="s">
         <v>26</v>
       </c>
@@ -1100,7 +1100,7 @@
       </c>
     </row>
     <row r="20" spans="3:6" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="C20" s="30" t="s">
+      <c r="C20" s="33" t="s">
         <v>4</v>
       </c>
       <c r="D20" s="11" t="s">
@@ -1114,7 +1114,7 @@
       </c>
     </row>
     <row r="21" spans="3:6" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C21" s="32"/>
+      <c r="C21" s="35"/>
       <c r="D21" s="10" t="s">
         <v>5</v>
       </c>
@@ -1140,7 +1140,7 @@
       </c>
     </row>
     <row r="23" spans="3:6" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="C23" s="30" t="s">
+      <c r="C23" s="33" t="s">
         <v>6</v>
       </c>
       <c r="D23" s="13" t="s">
@@ -1152,7 +1152,7 @@
       </c>
     </row>
     <row r="24" spans="3:6" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="C24" s="31"/>
+      <c r="C24" s="34"/>
       <c r="D24" s="14" t="s">
         <v>29</v>
       </c>
@@ -1162,7 +1162,7 @@
       </c>
     </row>
     <row r="25" spans="3:6" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="C25" s="31"/>
+      <c r="C25" s="34"/>
       <c r="D25" s="15" t="s">
         <v>30</v>
       </c>
@@ -1172,7 +1172,7 @@
       </c>
     </row>
     <row r="26" spans="3:6" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="C26" s="31"/>
+      <c r="C26" s="34"/>
       <c r="D26" s="14" t="s">
         <v>31</v>
       </c>
@@ -1182,7 +1182,7 @@
       </c>
     </row>
     <row r="27" spans="3:6" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="C27" s="31"/>
+      <c r="C27" s="34"/>
       <c r="D27" s="15" t="s">
         <v>7</v>
       </c>
@@ -1192,7 +1192,7 @@
       </c>
     </row>
     <row r="28" spans="3:6" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C28" s="31"/>
+      <c r="C28" s="34"/>
       <c r="D28" s="14" t="s">
         <v>8</v>
       </c>
@@ -1202,7 +1202,7 @@
       </c>
     </row>
     <row r="29" spans="3:6" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C29" s="32"/>
+      <c r="C29" s="35"/>
       <c r="D29" s="16" t="s">
         <v>9</v>
       </c>

--- a/Backlog.xlsx
+++ b/Backlog.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20389"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20370"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Nowy folder\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Student\Documents\GitHub\Knight-s-Memorial\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7131FAC9-5B3F-4373-BA7A-1B65D58EE261}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C2DEAEE-FD54-41D2-B582-4FE1D6E87BC8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3930" yWindow="345" windowWidth="23040" windowHeight="12630" xr2:uid="{49F0EBDF-A5B3-4490-AA8C-8E415F793754}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="38">
   <si>
     <t>Mapa</t>
   </si>
@@ -64,9 +64,6 @@
   </si>
   <si>
     <t>Wybór poziomu</t>
-  </si>
-  <si>
-    <t>Wybór postaci w walce</t>
   </si>
   <si>
     <t>Status</t>
@@ -386,15 +383,12 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="9" xfId="4" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="4" applyBorder="1" applyAlignment="1">
@@ -863,10 +857,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2104DC3-A092-450F-9842-2ED575DC7EF4}">
-  <dimension ref="C2:I43"/>
+  <dimension ref="C2:I42"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -879,340 +873,331 @@
   <sheetData>
     <row r="2" spans="3:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="3:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C3" s="30"/>
-      <c r="D3" s="18" t="s">
+      <c r="C3" s="29"/>
+      <c r="D3" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="25" t="s">
+      <c r="E3" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="F3" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="I3" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="F3" s="19" t="s">
+    </row>
+    <row r="4" spans="3:9" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="C4" s="32" t="s">
+        <v>0</v>
+      </c>
+      <c r="D4" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" s="20">
+        <v>1</v>
+      </c>
+      <c r="F4" s="22" t="s">
+        <v>35</v>
+      </c>
+      <c r="I4" s="28" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="5" spans="3:9" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="C5" s="33"/>
+      <c r="D5" s="31" t="s">
+        <v>37</v>
+      </c>
+      <c r="E5" s="25">
+        <v>1</v>
+      </c>
+      <c r="F5" s="26" t="s">
+        <v>35</v>
+      </c>
+      <c r="I5" s="28" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="6" spans="3:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C6" s="34"/>
+      <c r="D6" s="30" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" s="25">
+        <v>1</v>
+      </c>
+      <c r="F6" s="26" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="7" spans="3:9" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="C7" s="32" t="s">
+        <v>1</v>
+      </c>
+      <c r="D7" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="I3" s="24" t="s">
+      <c r="E7" s="25">
+        <v>1</v>
+      </c>
+      <c r="F7" s="26" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="4" spans="3:9" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="C4" s="33" t="s">
-        <v>0</v>
-      </c>
-      <c r="D4" s="17" t="s">
-        <v>11</v>
-      </c>
-      <c r="E4" s="21">
-        <v>1</v>
-      </c>
-      <c r="F4" s="23" t="s">
-        <v>36</v>
-      </c>
-      <c r="I4" s="29" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="5" spans="3:9" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="C5" s="34"/>
-      <c r="D5" s="32" t="s">
-        <v>38</v>
-      </c>
-      <c r="E5" s="26">
-        <v>1</v>
-      </c>
-      <c r="F5" s="27" t="s">
-        <v>36</v>
-      </c>
-      <c r="I5" s="29" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="6" spans="3:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C6" s="35"/>
-      <c r="D6" s="31" t="s">
-        <v>12</v>
-      </c>
-      <c r="E6" s="26">
-        <v>1</v>
-      </c>
-      <c r="F6" s="27" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="7" spans="3:9" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="C7" s="33" t="s">
-        <v>1</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E7" s="26">
-        <v>2</v>
-      </c>
-      <c r="F7" s="27" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="8" spans="3:9" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="3:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C8" s="34"/>
       <c r="D8" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="E8" s="26">
-        <v>1</v>
-      </c>
-      <c r="F8" s="27" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="9" spans="3:9" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C9" s="35"/>
+      <c r="E8" s="25">
+        <v>2</v>
+      </c>
+      <c r="F8" s="26" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="9" spans="3:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C9" s="32" t="s">
+        <v>2</v>
+      </c>
       <c r="D9" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="E9" s="26">
+      <c r="E9" s="25">
         <v>2</v>
       </c>
-      <c r="F9" s="27" t="s">
-        <v>34</v>
+      <c r="F9" s="26" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="10" spans="3:9" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="C10" s="33" t="s">
-        <v>2</v>
-      </c>
+      <c r="C10" s="33"/>
       <c r="D10" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="E10" s="26">
+      <c r="E10" s="25">
+        <v>3</v>
+      </c>
+      <c r="F10" s="26" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="11" spans="3:9" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="C11" s="33"/>
+      <c r="D11" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E11" s="25">
         <v>2</v>
       </c>
-      <c r="F10" s="27" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="11" spans="3:9" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="C11" s="34"/>
-      <c r="D11" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="E11" s="26">
-        <v>3</v>
-      </c>
-      <c r="F11" s="27" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="12" spans="3:9" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="F11" s="26" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="12" spans="3:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C12" s="34"/>
       <c r="D12" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="E12" s="26">
+      <c r="E12" s="25">
         <v>2</v>
       </c>
-      <c r="F12" s="27" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="13" spans="3:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C13" s="35"/>
+      <c r="F12" s="26" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="13" spans="3:9" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="C13" s="32" t="s">
+        <v>3</v>
+      </c>
       <c r="D13" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="E13" s="26">
+      <c r="E13" s="25">
         <v>2</v>
       </c>
-      <c r="F13" s="27" t="s">
-        <v>34</v>
+      <c r="F13" s="26" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="14" spans="3:9" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="C14" s="33" t="s">
-        <v>3</v>
-      </c>
+      <c r="C14" s="33"/>
       <c r="D14" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="E14" s="26">
-        <v>2</v>
-      </c>
-      <c r="F14" s="27" t="s">
-        <v>34</v>
+      <c r="E14" s="25">
+        <v>1</v>
+      </c>
+      <c r="F14" s="26" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="15" spans="3:9" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="C15" s="34"/>
+      <c r="C15" s="33"/>
       <c r="D15" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="E15" s="26">
-        <v>1</v>
-      </c>
-      <c r="F15" s="27" t="s">
-        <v>36</v>
+      <c r="E15" s="25">
+        <v>3</v>
+      </c>
+      <c r="F15" s="26" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="16" spans="3:9" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="C16" s="34"/>
-      <c r="D16" s="11" t="s">
+      <c r="C16" s="33"/>
+      <c r="D16" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="E16" s="26">
-        <v>3</v>
-      </c>
-      <c r="F16" s="27" t="s">
-        <v>34</v>
+      <c r="E16" s="25">
+        <v>2</v>
+      </c>
+      <c r="F16" s="26" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="17" spans="3:6" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="C17" s="34"/>
+      <c r="C17" s="33"/>
       <c r="D17" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="E17" s="26">
-        <v>2</v>
-      </c>
-      <c r="F17" s="27" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="18" spans="3:6" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="E17" s="25">
+        <v>3</v>
+      </c>
+      <c r="F17" s="26" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="18" spans="3:6" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C18" s="34"/>
-      <c r="D18" s="11" t="s">
+      <c r="D18" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="E18" s="26">
-        <v>3</v>
-      </c>
-      <c r="F18" s="27" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="19" spans="3:6" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C19" s="35"/>
+      <c r="E18" s="25">
+        <v>4</v>
+      </c>
+      <c r="F18" s="26" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="19" spans="3:6" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="C19" s="32" t="s">
+        <v>4</v>
+      </c>
       <c r="D19" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="E19" s="26">
+      <c r="E19" s="25">
+        <v>2</v>
+      </c>
+      <c r="F19" s="26" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="20" spans="3:6" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C20" s="34"/>
+      <c r="D20" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="E20" s="25">
+        <v>3</v>
+      </c>
+      <c r="F20" s="26" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="21" spans="3:6" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C21" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="D21" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="E21" s="25">
         <v>4</v>
       </c>
-      <c r="F19" s="27" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="20" spans="3:6" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="C20" s="33" t="s">
-        <v>4</v>
-      </c>
-      <c r="D20" s="11" t="s">
+      <c r="F21" s="26" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="22" spans="3:6" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="C22" s="32" t="s">
+        <v>6</v>
+      </c>
+      <c r="D22" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="E20" s="26">
-        <v>2</v>
-      </c>
-      <c r="F20" s="27" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="21" spans="3:6" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C21" s="35"/>
-      <c r="D21" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="E21" s="26">
-        <v>3</v>
-      </c>
-      <c r="F21" s="27" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="22" spans="3:6" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C22" s="20" t="s">
-        <v>33</v>
-      </c>
-      <c r="D22" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="E22" s="26">
-        <v>4</v>
-      </c>
-      <c r="F22" s="27" t="s">
-        <v>34</v>
+      <c r="E22" s="25"/>
+      <c r="F22" s="26" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="23" spans="3:6" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="C23" s="33" t="s">
-        <v>6</v>
-      </c>
+      <c r="C23" s="33"/>
       <c r="D23" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="E23" s="26"/>
-      <c r="F23" s="27" t="s">
-        <v>34</v>
+      <c r="E23" s="25"/>
+      <c r="F23" s="26" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="24" spans="3:6" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="C24" s="34"/>
+      <c r="C24" s="33"/>
       <c r="D24" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="E24" s="26"/>
-      <c r="F24" s="27" t="s">
-        <v>34</v>
+      <c r="E24" s="25"/>
+      <c r="F24" s="26" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="25" spans="3:6" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="C25" s="34"/>
-      <c r="D25" s="15" t="s">
+      <c r="C25" s="33"/>
+      <c r="D25" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="E25" s="26"/>
-      <c r="F25" s="27" t="s">
-        <v>34</v>
+      <c r="E25" s="25"/>
+      <c r="F25" s="26" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="26" spans="3:6" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="C26" s="34"/>
+      <c r="C26" s="33"/>
       <c r="D26" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="E26" s="26"/>
-      <c r="F26" s="27" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="27" spans="3:6" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="C27" s="34"/>
-      <c r="D27" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="E27" s="26"/>
+      <c r="E26" s="25"/>
+      <c r="F26" s="26" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="27" spans="3:6" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C27" s="33"/>
+      <c r="D27" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="E27" s="25"/>
       <c r="F27" s="27" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="28" spans="3:6" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C28" s="34"/>
-      <c r="D28" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="E28" s="26"/>
-      <c r="F28" s="28" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="29" spans="3:6" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C29" s="35"/>
-      <c r="D29" s="16" t="s">
+      <c r="D28" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="E29" s="22"/>
+      <c r="E28" s="21"/>
+    </row>
+    <row r="29" spans="3:6" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="C29" s="1"/>
     </row>
     <row r="30" spans="3:6" ht="18.75" x14ac:dyDescent="0.25">
       <c r="C30" s="1"/>
     </row>
     <row r="31" spans="3:6" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="C31" s="1"/>
+      <c r="C31" s="2"/>
     </row>
     <row r="32" spans="3:6" ht="18.75" x14ac:dyDescent="0.25">
       <c r="C32" s="2"/>
@@ -1236,7 +1221,7 @@
       <c r="C38" s="2"/>
     </row>
     <row r="39" spans="3:3" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="C39" s="2"/>
+      <c r="C39" s="1"/>
     </row>
     <row r="40" spans="3:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="C40" s="1"/>
@@ -1246,20 +1231,17 @@
     </row>
     <row r="42" spans="3:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="C42" s="1"/>
-    </row>
-    <row r="43" spans="3:3" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="C43" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="6">
     <mergeCell ref="C4:C6"/>
-    <mergeCell ref="C23:C29"/>
-    <mergeCell ref="C7:C9"/>
-    <mergeCell ref="C10:C13"/>
-    <mergeCell ref="C14:C19"/>
-    <mergeCell ref="C20:C21"/>
+    <mergeCell ref="C22:C28"/>
+    <mergeCell ref="C9:C12"/>
+    <mergeCell ref="C13:C18"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="C7:C8"/>
   </mergeCells>
-  <conditionalFormatting sqref="F4:F28">
+  <conditionalFormatting sqref="F4:F27">
     <cfRule type="cellIs" dxfId="8" priority="8" operator="equal">
       <formula>"Zrobione"</formula>
     </cfRule>
@@ -1292,8 +1274,8 @@
       <formula>NOT(ISERROR(SEARCH("w trakcie",I5)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E4:E29">
-    <cfRule type="colorScale" priority="11">
+  <conditionalFormatting sqref="E4:E28">
+    <cfRule type="colorScale" priority="18">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -1304,9 +1286,9 @@
   </conditionalFormatting>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I4:I5" xr:uid="{A98A101C-7750-4B88-BC2C-F7A0B40E2485}">
-      <formula1>$F$4:$F$28</formula1>
+      <formula1>$F$4:$F$27</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F4:F28" xr:uid="{D37B3B90-7106-4152-85C2-37C2F0ED4E56}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F4:F27" xr:uid="{D37B3B90-7106-4152-85C2-37C2F0ED4E56}">
       <formula1>$I$3:$I$5</formula1>
     </dataValidation>
   </dataValidations>

--- a/Backlog.xlsx
+++ b/Backlog.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Student\Documents\GitHub\Knight-s-Memorial\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Student\Desktop\game\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C2DEAEE-FD54-41D2-B582-4FE1D6E87BC8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC95BC65-475B-4BFD-8125-6380F9FBCA67}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3930" yWindow="345" windowWidth="23040" windowHeight="12630" xr2:uid="{49F0EBDF-A5B3-4490-AA8C-8E415F793754}"/>
   </bookViews>
@@ -859,8 +859,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2104DC3-A092-450F-9842-2ED575DC7EF4}">
   <dimension ref="C2:I42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+    <sheetView tabSelected="1" topLeftCell="C4" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -942,7 +942,7 @@
         <v>1</v>
       </c>
       <c r="F7" s="26" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="8" spans="3:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -968,7 +968,7 @@
         <v>2</v>
       </c>
       <c r="F9" s="26" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="10" spans="3:9" ht="18.75" x14ac:dyDescent="0.25">

--- a/Backlog.xlsx
+++ b/Backlog.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20370"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Student\Desktop\game\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC95BC65-475B-4BFD-8125-6380F9FBCA67}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="3930" yWindow="345" windowWidth="23040" windowHeight="12630" xr2:uid="{49F0EBDF-A5B3-4490-AA8C-8E415F793754}"/>
+    <workbookView xWindow="3930" yWindow="345" windowWidth="23040" windowHeight="12630"/>
   </bookViews>
   <sheets>
     <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
@@ -144,7 +138,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -471,11 +465,11 @@
     </xf>
   </cellXfs>
   <cellStyles count="5">
-    <cellStyle name="Akcent 2" xfId="1" builtinId="33"/>
-    <cellStyle name="Akcent 3" xfId="2" builtinId="37"/>
-    <cellStyle name="Akcent 4" xfId="3" builtinId="41"/>
-    <cellStyle name="Akcent 6" xfId="4" builtinId="49"/>
-    <cellStyle name="Normalny" xfId="0" builtinId="0"/>
+    <cellStyle name="Accent2" xfId="1" builtinId="33"/>
+    <cellStyle name="Accent3" xfId="2" builtinId="37"/>
+    <cellStyle name="Accent4" xfId="3" builtinId="41"/>
+    <cellStyle name="Accent6" xfId="4" builtinId="49"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="9">
     <dxf>
@@ -849,18 +843,18 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2104DC3-A092-450F-9842-2ED575DC7EF4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C2:I42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C4" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="H27" sqref="H27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -869,6 +863,7 @@
     <col min="4" max="4" width="69.28515625" customWidth="1"/>
     <col min="5" max="5" width="21.42578125" customWidth="1"/>
     <col min="6" max="6" width="21.7109375" customWidth="1"/>
+    <col min="9" max="9" width="13.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="3:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
@@ -1150,7 +1145,7 @@
       </c>
       <c r="E24" s="25"/>
       <c r="F24" s="26" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="25" spans="3:6" ht="18.75" x14ac:dyDescent="0.25">
@@ -1160,7 +1155,7 @@
       </c>
       <c r="E25" s="25"/>
       <c r="F25" s="26" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="26" spans="3:6" ht="18.75" x14ac:dyDescent="0.25">
@@ -1285,10 +1280,10 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I4:I5" xr:uid="{A98A101C-7750-4B88-BC2C-F7A0B40E2485}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I4:I5">
       <formula1>$F$4:$F$27</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F4:F27" xr:uid="{D37B3B90-7106-4152-85C2-37C2F0ED4E56}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F4:F27">
       <formula1>$I$3:$I$5</formula1>
     </dataValidation>
   </dataValidations>

--- a/Backlog.xlsx
+++ b/Backlog.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9303"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Tomek\Virtual Studio\Projects\Knight's Memorial\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B765068B-8D75-4012-B064-9E5283E8D47F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3930" yWindow="345" windowWidth="23040" windowHeight="12630"/>
+    <workbookView xWindow="3930" yWindow="345" windowWidth="23040" windowHeight="12630" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
@@ -138,7 +144,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -465,11 +471,11 @@
     </xf>
   </cellXfs>
   <cellStyles count="5">
-    <cellStyle name="Accent2" xfId="1" builtinId="33"/>
-    <cellStyle name="Accent3" xfId="2" builtinId="37"/>
-    <cellStyle name="Accent4" xfId="3" builtinId="41"/>
-    <cellStyle name="Accent6" xfId="4" builtinId="49"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Akcent 2" xfId="1" builtinId="33"/>
+    <cellStyle name="Akcent 3" xfId="2" builtinId="37"/>
+    <cellStyle name="Akcent 4" xfId="3" builtinId="41"/>
+    <cellStyle name="Akcent 6" xfId="4" builtinId="49"/>
+    <cellStyle name="Normalny" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="9">
     <dxf>
@@ -843,18 +849,18 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="C2:I42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="H27" sqref="H27"/>
+    <sheetView tabSelected="1" topLeftCell="C10" workbookViewId="0">
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1175,7 +1181,7 @@
       </c>
       <c r="E27" s="25"/>
       <c r="F27" s="27" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
     </row>
     <row r="28" spans="3:6" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -1280,10 +1286,10 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I4:I5">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I4:I5" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>$F$4:$F$27</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F4:F27">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F4:F27" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>$I$3:$I$5</formula1>
     </dataValidation>
   </dataValidations>
